--- a/pickles/database_copy_input.xlsx
+++ b/pickles/database_copy_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plr03474\NoOneDrive\Python\ArturWebApp\pickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85CFF8-92E4-4589-9F49-6633591586F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15CB37E-EAC9-4DB0-991F-BD1F0BEA178D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="alembic_version" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$A$1:$Q$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$A$1:$Q$78</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -79,255 +79,264 @@
     <t>id_project</t>
   </si>
   <si>
+    <t>Start datacamp - ultimate goal is data scientist</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
+    <t>OneTime</t>
+  </si>
+  <si>
+    <t>Next Week</t>
+  </si>
+  <si>
+    <t>Learn Javascript + react vue or agular</t>
+  </si>
+  <si>
+    <t>This Month</t>
+  </si>
+  <si>
+    <t>Learn pytest</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Make summary graph like currently used in iCloud</t>
+  </si>
+  <si>
+    <t>This Week</t>
+  </si>
+  <si>
+    <t>Add Do's and Don't strategy (including alcohol consumption)</t>
+  </si>
+  <si>
+    <t>Andre Peeters in SCGX</t>
+  </si>
+  <si>
+    <t>Job near see. Haga or Amsterdam area.</t>
+  </si>
+  <si>
+    <t>This Year</t>
+  </si>
+  <si>
+    <t>Compact forms (task, strategies, groups, etc)</t>
+  </si>
+  <si>
+    <t>Selection of few tasks with possibility of multi-edit (new due date, project)</t>
+  </si>
+  <si>
+    <t>On mobile screen - selected task should appear at the top of screen and be editable (like a small form), and then move back cursor</t>
+  </si>
+  <si>
+    <t>Rent a camper and go to Norway</t>
+  </si>
+  <si>
+    <t>Add 'safe me button' - postpone each overdue task with +1d to now()</t>
+  </si>
+  <si>
+    <t>Zenon Komar book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buisness idea - build app on Apple </t>
+  </si>
+  <si>
+    <t>Visit Museum on Natural History in Londnn</t>
+  </si>
+  <si>
+    <t>Climbing wall lets try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on execution of task - not on complaining and saying you can do it better. Do API, if you are so smart. </t>
+  </si>
+  <si>
+    <t>Buisness idea - supply chain consultant</t>
+  </si>
+  <si>
+    <t>Start datacamp - ML carierr</t>
+  </si>
+  <si>
+    <t>Change approach from it’s stupid to it’s great. Create value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game - 'drow' om floor tarcza (1-10) points and throw a paper ball. You move (on something) x steps. </t>
+  </si>
+  <si>
+    <t>You need to be the best in something. Python? ML? AI?</t>
+  </si>
+  <si>
+    <t>Implement new concept of Layout&amp;Blocks (like on whiteboard)</t>
+  </si>
+  <si>
+    <t>Refresh how new block concept should work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find 2nd job. In projects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rename Projects to Groups. They have category Projects, so it's ok. </t>
+  </si>
+  <si>
+    <t>There's a bug when uploading tasks from excel. Probably linked to if_exist='replace' (does not add proper id to task). Check it again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make initial task edit form small. </t>
+  </si>
+  <si>
+    <t>Implement no waste policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fedex API. </t>
+  </si>
+  <si>
+    <t>Refresh awa project setup</t>
+  </si>
+  <si>
+    <t>Rent a camper and go to Zermatt (Siep kamping)</t>
+  </si>
+  <si>
+    <t>Sleep in night outside house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearth attack soon. Stop drinking. More Sport. Alive till Erni 18 is. </t>
+  </si>
+  <si>
+    <t>Courage &amp; confrontation. It's a must-have of Gentlemen explorer.</t>
+  </si>
+  <si>
+    <t>Sleep under tent near tree</t>
+  </si>
+  <si>
+    <t>Book a camper for holidays - wadowscy.pl? or nl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a terrible, egoistic father! He's your last chance! Teach him life. </t>
+  </si>
+  <si>
+    <t>https://www.hauteroutehiking.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See movie Angela’s ashes </t>
+  </si>
+  <si>
+    <t>Build straw tower</t>
+  </si>
+  <si>
+    <t>Git book from Git-internet</t>
+  </si>
+  <si>
+    <t>python_flask &amp; python_databases: split excel into tasks</t>
+  </si>
+  <si>
+    <t>Make DueDate optional - so Timeline can have 'None'</t>
+  </si>
+  <si>
+    <t>Decide upon final lbs per plant</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Refresh: InstEnvPipCmd</t>
+  </si>
+  <si>
+    <t>Refresh: PyCharm</t>
+  </si>
+  <si>
+    <t>Later Today</t>
+  </si>
+  <si>
+    <t>Refresh: Hints_tbc, Start, Pythonista, geocode</t>
+  </si>
+  <si>
+    <t>Refresh: Syntax</t>
+  </si>
+  <si>
+    <t>Refresh: StrRegexFormat</t>
+  </si>
+  <si>
+    <t>Refresh: Builtins</t>
+  </si>
+  <si>
+    <t>Refresh: Ite(Gene)Rators</t>
+  </si>
+  <si>
+    <t>Refresh: ProgramStructure</t>
+  </si>
+  <si>
+    <t>Refresh: Packages</t>
+  </si>
+  <si>
+    <t>Refresh: Packages.datetime</t>
+  </si>
+  <si>
+    <t>Refresh: Functions</t>
+  </si>
+  <si>
+    <t>Refresh: OOP&amp;Classes</t>
+  </si>
+  <si>
+    <t>Refresh: Exceptions</t>
+  </si>
+  <si>
+    <t>Refresh: EasterEggs</t>
+  </si>
+  <si>
+    <t>Refresh: ReadWrite</t>
+  </si>
+  <si>
+    <t>Refresh: Git - very quickly 10m</t>
+  </si>
+  <si>
+    <t>Refresh: Git and log version solution. Watch this https://www.youtube.com/watch?v=WBg9mlpzEYU</t>
+  </si>
+  <si>
+    <t>Refresh: Security</t>
+  </si>
+  <si>
+    <t>python_datascience: refresh with doing - split into tasks (do with jupyter notebook)</t>
+  </si>
+  <si>
+    <t>PPM setup</t>
+  </si>
+  <si>
+    <t>Run 5km</t>
+  </si>
+  <si>
     <t>Repeatable</t>
   </si>
   <si>
-    <t>Now</t>
-  </si>
-  <si>
-    <t>Start datacamp - ultimate goal is data scientist</t>
-  </si>
-  <si>
-    <t>OneTime</t>
-  </si>
-  <si>
-    <t>Next Week</t>
-  </si>
-  <si>
-    <t>Learn Javascript + react vue or agular</t>
-  </si>
-  <si>
-    <t>This Month</t>
-  </si>
-  <si>
-    <t>Learn pytest</t>
-  </si>
-  <si>
-    <t>Learning</t>
-  </si>
-  <si>
-    <t>Make summary graph like currently used in iCloud</t>
-  </si>
-  <si>
-    <t>This Week</t>
-  </si>
-  <si>
-    <t>Add Do's and Don't strategy (including alcohol consumption)</t>
-  </si>
-  <si>
-    <t>Later Today</t>
-  </si>
-  <si>
-    <t>Run 5km</t>
-  </si>
-  <si>
-    <t>Andre Peeters in SCGX</t>
-  </si>
-  <si>
-    <t>Job near see. Haga or Amsterdam area.</t>
-  </si>
-  <si>
-    <t>This Year</t>
-  </si>
-  <si>
-    <t>Compact forms (task, strategies, groups, etc)</t>
-  </si>
-  <si>
-    <t>Selection of few tasks with possibility of multi-edit (new due date, project)</t>
-  </si>
-  <si>
-    <t>On mobile screen - selected task should appear at the top of screen and be editable (like a small form), and then move back cursor</t>
-  </si>
-  <si>
-    <t>Rent a camper and go to Norway</t>
-  </si>
-  <si>
-    <t>Add 'safe me button' - postpone each overdue task with +1d to now()</t>
-  </si>
-  <si>
-    <t>Zenon Komar book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buisness idea - build app on Apple </t>
-  </si>
-  <si>
-    <t>Visit Museum on Natural History in Londnn</t>
-  </si>
-  <si>
-    <t>Climbing wall lets try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focus on execution of task - not on complaining and saying you can do it better. Do API, if you are so smart. </t>
-  </si>
-  <si>
-    <t>Buisness idea - supply chain consultant</t>
-  </si>
-  <si>
-    <t>Start datacamp - ML carierr</t>
-  </si>
-  <si>
-    <t>Change approach from it’s stupid to it’s great. Create value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game - 'drow' om floor tarcza (1-10) points and throw a paper ball. You move (on something) x steps. </t>
-  </si>
-  <si>
-    <t>You need to be the best in something. Python? ML? AI?</t>
-  </si>
-  <si>
-    <t>Implement new concept of Layout&amp;Blocks (like on whiteboard)</t>
-  </si>
-  <si>
-    <t>Refresh how new block concept should work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find 2nd job. In projects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rename Projects to Groups. They have category Projects, so it's ok. </t>
-  </si>
-  <si>
-    <t>There's a bug when uploading tasks from excel. Probably linked to if_exist='replace' (does not add proper id to task). Check it again.</t>
-  </si>
-  <si>
-    <t>Knowledge - refresh python with doing (split this into separate tasks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make initial task edit form small. </t>
+    <t xml:space="preserve">Add and test Adi's marcos </t>
+  </si>
+  <si>
+    <t>Transporatiton cost deck - also for Cooper</t>
+  </si>
+  <si>
+    <t>Get Adis files and macros</t>
+  </si>
+  <si>
+    <t>See iss movie with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new branch, push, clear database, and merge. </t>
   </si>
   <si>
     <t>De as van mijn moeder</t>
   </si>
   <si>
-    <t>Implement no waste policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fedex API. </t>
-  </si>
-  <si>
-    <t>Refresh awa project setup</t>
-  </si>
-  <si>
-    <t>Rent a camper and go to Zermatt (Siep kamping)</t>
-  </si>
-  <si>
-    <t>Sleep in night outside house</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hearth attack soon. Stop drinking. More Sport. Alive till Erni 18 is. </t>
-  </si>
-  <si>
-    <t>Courage &amp; confrontation. It's a must-have of Gentlemen explorer.</t>
-  </si>
-  <si>
-    <t>Sleep under tent near tree</t>
-  </si>
-  <si>
-    <t>Book a camper for holidays - wadowscy.pl? or nl?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are a terrible, egoistic father! He's your last chance! Teach him life. </t>
-  </si>
-  <si>
-    <t>https://www.hauteroutehiking.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See movie Angela’s ashes </t>
-  </si>
-  <si>
-    <t>Build straw tower</t>
-  </si>
-  <si>
-    <t>Git book from Git-internet</t>
-  </si>
-  <si>
-    <t>python_flask &amp; python_databases: split excel into tasks</t>
-  </si>
-  <si>
-    <t>Make DueDate optional - so Timeline can have 'None'</t>
-  </si>
-  <si>
     <t>Add missing lbs to Factories BG Prof</t>
   </si>
   <si>
-    <t>Refresh: InstEnvPipCmd</t>
-  </si>
-  <si>
-    <t>Refresh: PyCharm</t>
-  </si>
-  <si>
-    <t>Refresh: Hints_tbc, Start, Pythonista, geocode</t>
-  </si>
-  <si>
-    <t>Refresh: Syntax</t>
-  </si>
-  <si>
-    <t>Refresh: StrRegexFormat</t>
-  </si>
-  <si>
-    <t>Refresh: Builtins</t>
-  </si>
-  <si>
-    <t>Refresh: Ite(Gene)Rators</t>
-  </si>
-  <si>
-    <t>Refresh: ProgramStructure</t>
-  </si>
-  <si>
-    <t>Refresh: Packages</t>
-  </si>
-  <si>
-    <t>Refresh: Packages.datetime</t>
-  </si>
-  <si>
-    <t>Refresh: Functions</t>
-  </si>
-  <si>
-    <t>Refresh: OOP&amp;Classes</t>
-  </si>
-  <si>
-    <t>Refresh: Exceptions</t>
-  </si>
-  <si>
-    <t>Refresh: EasterEggs</t>
-  </si>
-  <si>
-    <t>Refresh: ReadWrite</t>
-  </si>
-  <si>
-    <t>Refresh: Git - very quickly 10m</t>
-  </si>
-  <si>
-    <t>Refresh: Git and log version solution. Watch this https://www.youtube.com/watch?v=WBg9mlpzEYU</t>
-  </si>
-  <si>
-    <t>Refresh: Security</t>
-  </si>
-  <si>
-    <t>python_datascience: refresh with doing - split into tasks (do with jupyter notebook)</t>
-  </si>
-  <si>
-    <t>PPM setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add and test Adi's marcos </t>
-  </si>
-  <si>
-    <t>Transporatiton cost deck - also for Cooper</t>
+    <t>Prepare answers for validation</t>
+  </si>
+  <si>
+    <t>Push planning by 2 extra days and make excel copy of all refresh tasks</t>
   </si>
   <si>
     <t>Start making Baseline in DG with Alec macros</t>
   </si>
   <si>
-    <t>See iss movie with family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new branch, push, clear database, and merge. </t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -508,7 +517,7 @@
     <t>version_num</t>
   </si>
   <si>
-    <t>bcb650ad798f</t>
+    <t>21dc4ab16ccc</t>
   </si>
 </sst>
 </file>
@@ -516,7 +525,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -572,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,14 +884,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -954,13 +965,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -972,7 +983,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <v>25569</v>
@@ -981,7 +992,7 @@
         <v>25569</v>
       </c>
       <c r="N2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -998,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1016,7 +1027,7 @@
         <v>44560.999305555553</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2">
         <v>25569</v>
@@ -1025,7 +1036,7 @@
         <v>25569</v>
       </c>
       <c r="N3">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -1042,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1060,7 +1071,7 @@
         <v>44074</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2">
         <v>25569</v>
@@ -1069,7 +1080,7 @@
         <v>25569</v>
       </c>
       <c r="N4">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1086,13 +1097,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1101,10 +1112,10 @@
         <v>43938.430392835653</v>
       </c>
       <c r="I5" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2">
         <v>25569.083333333328</v>
@@ -1113,7 +1124,7 @@
         <v>25569</v>
       </c>
       <c r="N5">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -1130,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1145,10 +1156,10 @@
         <v>43941.307375729157</v>
       </c>
       <c r="I6" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2">
         <v>25569</v>
@@ -1157,7 +1168,7 @@
         <v>25569</v>
       </c>
       <c r="N6">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1174,13 +1185,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1192,7 +1203,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
         <v>25569.041666666672</v>
@@ -1201,7 +1212,7 @@
         <v>25569</v>
       </c>
       <c r="N7">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1218,13 +1229,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1236,7 +1247,7 @@
         <v>44192</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2">
         <v>25569</v>
@@ -1245,7 +1256,7 @@
         <v>25569</v>
       </c>
       <c r="N8">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1262,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1277,10 +1288,10 @@
         <v>43951.568748310186</v>
       </c>
       <c r="I9" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2">
         <v>25569</v>
@@ -1289,7 +1300,7 @@
         <v>25569</v>
       </c>
       <c r="N9">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1306,13 +1317,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1321,10 +1332,10 @@
         <v>43951.570831319441</v>
       </c>
       <c r="I10" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2">
         <v>25569</v>
@@ -1333,7 +1344,7 @@
         <v>25569</v>
       </c>
       <c r="N10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1350,13 +1361,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1365,10 +1376,10 @@
         <v>43952.402319247682</v>
       </c>
       <c r="I11" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2">
         <v>25569</v>
@@ -1377,7 +1388,7 @@
         <v>25569</v>
       </c>
       <c r="N11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1394,13 +1405,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1412,7 +1423,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
         <v>25569</v>
@@ -1421,7 +1432,7 @@
         <v>25569</v>
       </c>
       <c r="N12">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1438,13 +1449,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1453,10 +1464,10 @@
         <v>43961.509248599526</v>
       </c>
       <c r="I13" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2">
         <v>25569</v>
@@ -1465,7 +1476,7 @@
         <v>25569</v>
       </c>
       <c r="N13">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1482,13 +1493,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1500,7 +1511,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2">
         <v>25569</v>
@@ -1509,7 +1520,7 @@
         <v>25569</v>
       </c>
       <c r="N14">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1526,13 +1537,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1544,7 +1555,7 @@
         <v>44192</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2">
         <v>25569</v>
@@ -1553,7 +1564,7 @@
         <v>25569</v>
       </c>
       <c r="N15">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1570,13 +1581,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1588,7 +1599,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2">
         <v>25569</v>
@@ -1597,7 +1608,7 @@
         <v>25569</v>
       </c>
       <c r="N16">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1614,13 +1625,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1632,7 +1643,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2">
         <v>25569</v>
@@ -1641,7 +1652,7 @@
         <v>25569</v>
       </c>
       <c r="N17">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1658,13 +1669,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1676,7 +1687,7 @@
         <v>44192</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2">
         <v>25569</v>
@@ -1685,7 +1696,7 @@
         <v>25569</v>
       </c>
       <c r="N18">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1702,13 +1713,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1720,7 +1731,7 @@
         <v>44192</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="2">
         <v>25569</v>
@@ -1729,7 +1740,7 @@
         <v>25569</v>
       </c>
       <c r="N19">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1746,13 +1757,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1764,7 +1775,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2">
         <v>25569</v>
@@ -1773,7 +1784,7 @@
         <v>25569</v>
       </c>
       <c r="N20">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1790,13 +1801,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1808,7 +1819,7 @@
         <v>44192</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2">
         <v>25569</v>
@@ -1817,7 +1828,7 @@
         <v>25569</v>
       </c>
       <c r="N21">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1834,13 +1845,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1852,7 +1863,7 @@
         <v>44044.958333333343</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2">
         <v>25569</v>
@@ -1861,7 +1872,7 @@
         <v>25569</v>
       </c>
       <c r="N22">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1878,13 +1889,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1896,7 +1907,7 @@
         <v>44192</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K23" s="2">
         <v>25569</v>
@@ -1905,7 +1916,7 @@
         <v>25569</v>
       </c>
       <c r="N23">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1922,13 +1933,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1937,10 +1948,10 @@
         <v>43976.426622604173</v>
       </c>
       <c r="I24" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2">
         <v>25569</v>
@@ -1949,7 +1960,7 @@
         <v>25569</v>
       </c>
       <c r="N24">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -1966,13 +1977,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1981,10 +1992,10 @@
         <v>43976.822228622688</v>
       </c>
       <c r="I25" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2">
         <v>25569</v>
@@ -1993,7 +2004,7 @@
         <v>25569</v>
       </c>
       <c r="N25">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -2010,13 +2021,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2028,7 +2039,7 @@
         <v>44192</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K26" s="2">
         <v>25569</v>
@@ -2037,7 +2048,7 @@
         <v>25569</v>
       </c>
       <c r="N26">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -2054,13 +2065,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2069,10 +2080,10 @@
         <v>43978.507265243054</v>
       </c>
       <c r="I27" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K27" s="2">
         <v>25569</v>
@@ -2081,7 +2092,7 @@
         <v>25569</v>
       </c>
       <c r="N27">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -2098,25 +2109,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>43978.781612130209</v>
+        <v>43978.781612129627</v>
       </c>
       <c r="I28" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K28" s="2">
         <v>25569</v>
@@ -2125,7 +2136,7 @@
         <v>25569</v>
       </c>
       <c r="N28">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -2139,37 +2150,37 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>43981.456115426037</v>
+        <v>43981.456691481479</v>
       </c>
       <c r="I29" s="2">
-        <v>44033.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K29" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L29" s="2">
         <v>25569</v>
       </c>
       <c r="N29">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2183,72 +2194,72 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>43981.45669148193</v>
+        <v>43983.030327812499</v>
       </c>
       <c r="I30" s="2">
-        <v>44039.958333333336</v>
+        <v>44192</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="2">
-        <v>25569.020833333328</v>
+        <v>25569</v>
       </c>
       <c r="L30" s="2">
         <v>25569</v>
       </c>
       <c r="N30">
-        <v>228</v>
+        <v>560</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>43983.030327813278</v>
+        <v>43984.482519363417</v>
       </c>
       <c r="I31" s="2">
         <v>44192</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K31" s="2">
         <v>25569</v>
@@ -2257,7 +2268,7 @@
         <v>25569</v>
       </c>
       <c r="N31">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2266,121 +2277,121 @@
         <v>8</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>43984.482519360557</v>
+        <v>43988.483586319453</v>
       </c>
       <c r="I32" s="2">
-        <v>44192</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K32" s="2">
-        <v>25569</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L32" s="2">
         <v>25569</v>
       </c>
       <c r="N32">
-        <v>567</v>
+        <v>223</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>43988.483586320799</v>
+        <v>43988.966488379629</v>
       </c>
       <c r="I33" s="2">
-        <v>44039.958333333336</v>
+        <v>44044.958333333343</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L33" s="2">
         <v>25569</v>
       </c>
       <c r="N33">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>43988.966488384132</v>
+        <v>43988.96650574074</v>
       </c>
       <c r="I34" s="2">
         <v>44044.958333333343</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K34" s="2">
         <v>25569</v>
@@ -2389,7 +2400,7 @@
         <v>25569</v>
       </c>
       <c r="N34">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2403,28 +2414,28 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>43988.966505741497</v>
+        <v>43988.989442025457</v>
       </c>
       <c r="I35" s="2">
-        <v>44044.958333333343</v>
+        <v>44192</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K35" s="2">
         <v>25569</v>
@@ -2433,42 +2444,42 @@
         <v>25569</v>
       </c>
       <c r="N35">
-        <v>352</v>
+        <v>557</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>43988.989442021782</v>
+        <v>43989.035299861112</v>
       </c>
       <c r="I36" s="2">
         <v>44192</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K36" s="2">
         <v>25569</v>
@@ -2477,7 +2488,7 @@
         <v>25569</v>
       </c>
       <c r="N36">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2491,28 +2502,28 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>43989.035299859621</v>
+        <v>43989.991552615742</v>
       </c>
       <c r="I37" s="2">
-        <v>44192</v>
+        <v>44044.958333333343</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2">
         <v>25569</v>
@@ -2521,42 +2532,42 @@
         <v>25569</v>
       </c>
       <c r="N37">
-        <v>561</v>
+        <v>352</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>43989.991552611027</v>
+        <v>43994.96061115741</v>
       </c>
       <c r="I38" s="2">
         <v>44044.958333333343</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K38" s="2">
         <v>25569</v>
@@ -2565,7 +2576,7 @@
         <v>25569</v>
       </c>
       <c r="N38">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -2579,28 +2590,28 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>43994.960611156122</v>
+        <v>43996.503118287037</v>
       </c>
       <c r="I39" s="2">
         <v>44044.958333333343</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K39" s="2">
         <v>25569</v>
@@ -2609,7 +2620,7 @@
         <v>25569</v>
       </c>
       <c r="N39">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -2623,28 +2634,28 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>43996.503118284338</v>
+        <v>43999.462884421293</v>
       </c>
       <c r="I40" s="2">
         <v>44044.958333333343</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K40" s="2">
         <v>25569</v>
@@ -2653,7 +2664,7 @@
         <v>25569</v>
       </c>
       <c r="N40">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2667,28 +2678,28 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>43999.462884419969</v>
+        <v>44002.520889814812</v>
       </c>
       <c r="I41" s="2">
         <v>44044.958333333343</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K41" s="2">
         <v>25569</v>
@@ -2697,42 +2708,42 @@
         <v>25569</v>
       </c>
       <c r="N41">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>44002.520889812913</v>
+        <v>44007.003158854168</v>
       </c>
       <c r="I42" s="2">
         <v>44044.958333333343</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K42" s="2">
         <v>25569</v>
@@ -2741,95 +2752,95 @@
         <v>25569</v>
       </c>
       <c r="N42">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="2">
-        <v>44007.003158855623</v>
+        <v>44011.404031458333</v>
       </c>
       <c r="I43" s="2">
-        <v>44044.958333333343</v>
+        <v>44196</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="2">
-        <v>25569</v>
+        <v>25569.416666666672</v>
       </c>
       <c r="L43" s="2">
         <v>25569</v>
       </c>
       <c r="N43">
-        <v>349</v>
+        <v>454</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>44011.404031454287</v>
+        <v>44013.585084872677</v>
       </c>
       <c r="I44" s="2">
-        <v>44196</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K44" s="2">
-        <v>25569.416666666672</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L44" s="2">
         <v>25569</v>
       </c>
       <c r="N44">
-        <v>457</v>
+        <v>222</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -2838,36 +2849,36 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>44013.585084873746</v>
+        <v>44013.586932523147</v>
       </c>
       <c r="I45" s="2">
-        <v>44039.958333333336</v>
+        <v>44041.958333333336</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K45" s="2">
-        <v>25569.041666666672</v>
+        <v>25569</v>
       </c>
       <c r="L45" s="2">
         <v>25569</v>
@@ -2887,125 +2898,131 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" s="2">
-        <v>44013.586932522579</v>
+        <v>44021.653059641198</v>
+      </c>
+      <c r="H46" s="2">
+        <v>44032.510795222457</v>
       </c>
       <c r="I46" s="2">
-        <v>44039.958333333336</v>
+        <v>44032.958333333343</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="K46" s="2">
-        <v>25569</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L46" s="2">
-        <v>25569</v>
+        <v>25569.035135746712</v>
       </c>
       <c r="N46">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>44021.653059644501</v>
+        <v>44026.550005023149</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44033.842700671339</v>
       </c>
       <c r="I47" s="2">
-        <v>44032.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="K47" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.03125</v>
       </c>
       <c r="L47" s="2">
-        <v>25569</v>
+        <v>25569.045100848161</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>44026.550005023448</v>
+        <v>44026.551337199067</v>
       </c>
       <c r="I48" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K48" s="2">
-        <v>25569.03125</v>
+        <v>25569.006944444449</v>
       </c>
       <c r="L48" s="2">
         <v>25569</v>
       </c>
       <c r="N48">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -3019,37 +3036,37 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>44026.551337198704</v>
+        <v>44026.551868750001</v>
       </c>
       <c r="I49" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K49" s="2">
-        <v>25569.006944444449</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L49" s="2">
         <v>25569</v>
       </c>
       <c r="N49">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3063,37 +3080,37 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>44026.551868754701</v>
+        <v>44026.552032743057</v>
       </c>
       <c r="I50" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K50" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.03125</v>
       </c>
       <c r="L50" s="2">
         <v>25569</v>
       </c>
       <c r="N50">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3107,28 +3124,28 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>44026.552032741922</v>
+        <v>44026.552062569448</v>
       </c>
       <c r="I51" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K51" s="2">
         <v>25569.03125</v>
@@ -3137,7 +3154,7 @@
         <v>25569</v>
       </c>
       <c r="N51">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -3151,28 +3168,28 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>44026.552062574468</v>
+        <v>44026.552083009257</v>
       </c>
       <c r="I52" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K52" s="2">
         <v>25569.03125</v>
@@ -3181,7 +3198,7 @@
         <v>25569</v>
       </c>
       <c r="N52">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -3195,37 +3212,37 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>44026.552083005103</v>
+        <v>44026.552099097222</v>
       </c>
       <c r="I53" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K53" s="2">
-        <v>25569.03125</v>
+        <v>25569.010416666672</v>
       </c>
       <c r="L53" s="2">
         <v>25569</v>
       </c>
       <c r="N53">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
@@ -3239,37 +3256,37 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>44026.552099098713</v>
+        <v>44026.552116273153</v>
       </c>
       <c r="I54" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K54" s="2">
-        <v>25569.010416666672</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L54" s="2">
         <v>25569</v>
       </c>
       <c r="N54">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -3283,28 +3300,28 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>44026.552116272709</v>
+        <v>44026.552123321759</v>
       </c>
       <c r="I55" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K55" s="2">
         <v>25569.020833333328</v>
@@ -3313,7 +3330,7 @@
         <v>25569</v>
       </c>
       <c r="N55">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -3327,28 +3344,28 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>44026.552123323752</v>
+        <v>44026.552132546298</v>
       </c>
       <c r="I56" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K56" s="2">
         <v>25569.020833333328</v>
@@ -3357,7 +3374,7 @@
         <v>25569</v>
       </c>
       <c r="N56">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
@@ -3371,37 +3388,37 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>44026.552132544872</v>
+        <v>44026.552142129629</v>
       </c>
       <c r="I57" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K57" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.03125</v>
       </c>
       <c r="L57" s="2">
         <v>25569</v>
       </c>
       <c r="N57">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
@@ -3415,37 +3432,37 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>44026.552142127242</v>
+        <v>44026.552149363422</v>
       </c>
       <c r="I58" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J58" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K58" s="2">
-        <v>25569.03125</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L58" s="2">
         <v>25569</v>
       </c>
       <c r="N58">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -3459,37 +3476,37 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" s="2">
-        <v>44026.552149359479</v>
+        <v>44026.552156412043</v>
       </c>
       <c r="I59" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J59" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K59" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.017361111109</v>
       </c>
       <c r="L59" s="2">
         <v>25569</v>
       </c>
       <c r="N59">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O59" t="b">
         <v>0</v>
@@ -3503,37 +3520,37 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>44026.552156410777</v>
+        <v>44026.552163645843</v>
       </c>
       <c r="I60" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K60" s="2">
-        <v>25569.017361111109</v>
+        <v>25569.003472222219</v>
       </c>
       <c r="L60" s="2">
         <v>25569</v>
       </c>
       <c r="N60">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O60" t="b">
         <v>0</v>
@@ -3547,37 +3564,37 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>44026.552163642897</v>
+        <v>44026.553170370367</v>
       </c>
       <c r="I61" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J61" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K61" s="2">
-        <v>25569.003472222219</v>
+        <v>25569.010416666672</v>
       </c>
       <c r="L61" s="2">
         <v>25569</v>
       </c>
       <c r="N61">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O61" t="b">
         <v>0</v>
@@ -3591,37 +3608,37 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>44026.553170368687</v>
+        <v>44026.555861284724</v>
       </c>
       <c r="I62" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J62" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K62" s="2">
         <v>25569.010416666672</v>
       </c>
       <c r="L62" s="2">
-        <v>25569</v>
+        <v>25569.00002314815</v>
       </c>
       <c r="N62">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="O62" t="b">
         <v>0</v>
@@ -3635,37 +3652,37 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" s="2">
-        <v>44026.55586128751</v>
+        <v>44026.555869247677</v>
       </c>
       <c r="I63" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J63" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K63" s="2">
-        <v>25569.010416666672</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L63" s="2">
-        <v>25569.00002314815</v>
+        <v>25569</v>
       </c>
       <c r="N63">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
@@ -3679,37 +3696,37 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <v>44026.555869245552</v>
+        <v>44026.555876655089</v>
       </c>
       <c r="I64" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K64" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.010416666672</v>
       </c>
       <c r="L64" s="2">
         <v>25569</v>
       </c>
       <c r="N64">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O64" t="b">
         <v>0</v>
@@ -3723,28 +3740,28 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>44026.555876657883</v>
+        <v>44026.555883171299</v>
       </c>
       <c r="I65" s="2">
-        <v>44033.958333333336</v>
+        <v>44035.958333333336</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K65" s="2">
         <v>25569.010416666672</v>
@@ -3753,7 +3770,7 @@
         <v>25569</v>
       </c>
       <c r="N65">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="O65" t="b">
         <v>0</v>
@@ -3767,160 +3784,163 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="2">
-        <v>44026.555883166737</v>
+        <v>44026.568647870372</v>
       </c>
       <c r="I66" s="2">
-        <v>44039.958333333336</v>
+        <v>44043.958333333343</v>
       </c>
       <c r="J66" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K66" s="2">
-        <v>25569.010416666672</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L66" s="2">
         <v>25569</v>
       </c>
       <c r="N66">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="2">
-        <v>44026.568647865577</v>
+        <v>44028.830206921302</v>
       </c>
       <c r="I67" s="2">
-        <v>44043.958333333336</v>
+        <v>44033.958333333343</v>
       </c>
       <c r="J67" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K67" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L67" s="2">
         <v>25569</v>
       </c>
       <c r="N67">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
       </c>
       <c r="P67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>44028.830206920691</v>
+        <v>44028.683946550933</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44033.542628010568</v>
       </c>
       <c r="I68" s="2">
-        <v>44033.958333333336</v>
+        <v>44033.958333333343</v>
       </c>
       <c r="J68" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="K68" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="L68" s="2">
-        <v>25569</v>
+        <v>25569.027635618939</v>
       </c>
       <c r="N68">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>44028.683946556353</v>
+        <v>44028.683964456017</v>
       </c>
       <c r="I69" s="2">
-        <v>44032.958333333336</v>
+        <v>44033.958333333343</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="K69" s="2">
         <v>25569.020833333328</v>
@@ -3929,7 +3949,7 @@
         <v>25569</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="O69" t="b">
         <v>0</v>
@@ -3943,37 +3963,37 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>44028.684679155092</v>
+      </c>
+      <c r="I70" s="2">
+        <v>44033.958333333343</v>
+      </c>
+      <c r="J70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2">
-        <v>44028.683964456177</v>
-      </c>
-      <c r="I70" s="2">
-        <v>44032.958333333336</v>
-      </c>
-      <c r="J70" t="s">
-        <v>19</v>
-      </c>
       <c r="K70" s="2">
-        <v>25569.020833333328</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L70" s="2">
         <v>25569</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="O70" t="b">
         <v>0</v>
@@ -3987,125 +4007,128 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>44028.684679150167</v>
+        <v>44030.96322972222</v>
       </c>
       <c r="I71" s="2">
-        <v>44032.958333333336</v>
+        <v>44044.958333333343</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K71" s="2">
-        <v>25569.020833333328</v>
+        <v>25569</v>
       </c>
       <c r="L71" s="2">
         <v>25569</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>336</v>
       </c>
       <c r="O71" t="b">
         <v>0</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" s="2">
-        <v>44030.96322972398</v>
+        <v>44031.499340729169</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44031.750147186249</v>
       </c>
       <c r="I72" s="2">
-        <v>44044.958333333343</v>
+        <v>44031.958333333343</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="K72" s="2">
-        <v>25569</v>
+        <v>25569.041666666672</v>
       </c>
       <c r="L72" s="2">
-        <v>25569</v>
+        <v>25569.059027777781</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73" s="2">
-        <v>44031.499340734437</v>
+        <v>44032.644253101847</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44032.649103017873</v>
       </c>
       <c r="I73" s="2">
-        <v>44031.958333333343</v>
+        <v>44033.958333333343</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="K73" s="2">
-        <v>25569.041666666672</v>
+        <v>25569.020833333328</v>
       </c>
       <c r="L73" s="2">
-        <v>25569</v>
-      </c>
-      <c r="M73" s="2">
-        <v>44031.69201649294</v>
+        <v>25569.016267867719</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4114,57 +4137,243 @@
         <v>1</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>44032.644253096943</v>
+        <v>44032.475106169572</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44032.716726685198</v>
       </c>
       <c r="I74" s="2">
-        <v>44033.958333333336</v>
+        <v>44032.958333333343</v>
       </c>
       <c r="J74" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="K74" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="L74" s="2">
-        <v>25569</v>
+        <v>25569.032753724259</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
+        <v>6</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>44033.649103017873</v>
+      </c>
+      <c r="I75" s="2">
+        <v>44033.958333333343</v>
+      </c>
+      <c r="J75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K75" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L75" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N75">
+        <v>101</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75">
         <v>3</v>
       </c>
-      <c r="Q74">
-        <v>1</v>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>44032.725315162359</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44033.542154016133</v>
+      </c>
+      <c r="I76" s="2">
+        <v>44033.958333333343</v>
+      </c>
+      <c r="J76" t="s">
+        <v>69</v>
+      </c>
+      <c r="K76" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L76" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="b">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>44034.415891478377</v>
+      </c>
+      <c r="I77" s="2">
+        <v>44034.958333333343</v>
+      </c>
+      <c r="J77" t="s">
+        <v>69</v>
+      </c>
+      <c r="K77" s="2">
+        <v>25569.013888888891</v>
+      </c>
+      <c r="L77" s="2">
+        <v>25569.00666385021</v>
+      </c>
+      <c r="M77" s="2">
+        <v>44034.439376495167</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="b">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>44034.416075716239</v>
+      </c>
+      <c r="I78" s="2">
+        <v>44033.958333333343</v>
+      </c>
+      <c r="J78" t="s">
+        <v>72</v>
+      </c>
+      <c r="K78" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L78" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N78">
+        <v>102</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>6</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q78" xr:uid="{B9E9D5DA-F842-43AC-8F36-55D008B0A50F}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4173,23 +4382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4199,13 +4394,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -4217,7 +4412,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -4228,13 +4423,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4246,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4254,13 +4449,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -4272,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4280,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -4298,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4306,13 +4501,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -4324,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4332,13 +4527,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -4350,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4358,13 +4553,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -4376,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4384,13 +4579,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -4402,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4410,13 +4605,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F9">
         <v>35</v>
@@ -4428,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4436,13 +4631,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4454,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4462,13 +4657,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4480,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4492,24 +4687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4519,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4528,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -4546,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4554,19 +4734,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4589,16 +4769,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G3">
         <v>30</v>
@@ -4621,19 +4801,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -4656,16 +4836,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -4688,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -4720,19 +4900,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4755,16 +4935,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
         <v>156</v>
       </c>
-      <c r="E8" t="s">
-        <v>153</v>
-      </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4787,16 +4967,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4829,12 +5009,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
